--- a/demo-14-4/bin/Debug/net8.0/Product/AllProducts.xlsx
+++ b/demo-14-4/bin/Debug/net8.0/Product/AllProducts.xlsx
@@ -605,7 +605,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="F2" s="0">
-        <x:v>12723.57</x:v>
+        <x:v>9173.4</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:6">
@@ -625,7 +625,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="F3" s="0">
-        <x:v>11126.63</x:v>
+        <x:v>9173.4</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -645,7 +645,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="F4" s="0">
-        <x:v>6393</x:v>
+        <x:v>9173.4</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6">

--- a/demo-14-4/bin/Debug/net8.0/Product/AllProducts.xlsx
+++ b/demo-14-4/bin/Debug/net8.0/Product/AllProducts.xlsx
@@ -16,199 +16,184 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>241555</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R18 Кованный</x:t>
-  </x:si>
-  <x:si>
-    <x:t>241666</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R18 Rjd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11</x:t>
-  </x:si>
-  <x:si>
     <x:t>237228</x:t>
   </x:si>
   <x:si>
     <x:t>332858</x:t>
   </x:si>
   <x:si>
+    <x:t>R18 Липучка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>332936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>255211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>308647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R21 Липучка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Цех №</x:t>
+  </x:si>
+  <x:si>
+    <x:t>440973</x:t>
+  </x:si>
+  <x:si>
+    <x:t>444280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R22 Липучка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R19 Липучка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Тип</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R15 Липучка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>331576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>330951</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R14 Лето</x:t>
+  </x:si>
+  <x:si>
+    <x:t>354738</x:t>
+  </x:si>
+  <x:si>
     <x:t>Название</x:t>
   </x:si>
   <x:si>
-    <x:t>R18 Липучка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>330951</x:t>
+    <x:t>R17 Лето</x:t>
+  </x:si>
+  <x:si>
+    <x:t>434626</x:t>
+  </x:si>
+  <x:si>
+    <x:t>387609</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R20 Лето</x:t>
+  </x:si>
+  <x:si>
+    <x:t>394413</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R16 Зима</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R18 Зима</x:t>
+  </x:si>
+  <x:si>
+    <x:t>283112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R19 Лето</x:t>
+  </x:si>
+  <x:si>
+    <x:t>453650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R22 Зима</x:t>
+  </x:si>
+  <x:si>
+    <x:t>406784</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R22 Лето</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R20 Липучка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>337577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R16 Лето</x:t>
+  </x:si>
+  <x:si>
+    <x:t>358851</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R19 Зима</x:t>
+  </x:si>
+  <x:si>
+    <x:t>274477</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Диск</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R14 Кованый</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282569</x:t>
+  </x:si>
+  <x:si>
+    <x:t>388520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R22 Кованый</x:t>
+  </x:si>
+  <x:si>
+    <x:t>327883</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R17 Липучка</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Колесо</x:t>
+  </x:si>
+  <x:si>
+    <x:t>328305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>305509</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Запаска</x:t>
+  </x:si>
+  <x:si>
+    <x:t>447543</x:t>
+  </x:si>
+  <x:si>
+    <x:t>412238</x:t>
+  </x:si>
+  <x:si>
+    <x:t>R18 Лето</x:t>
   </x:si>
   <x:si>
     <x:t>349418</x:t>
   </x:si>
   <x:si>
-    <x:t>332936</x:t>
+    <x:t>Шина</x:t>
+  </x:si>
+  <x:si>
+    <x:t>418286</x:t>
   </x:si>
   <x:si>
     <x:t>241658</x:t>
   </x:si>
   <x:si>
-    <x:t>R20 Липучка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>255211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R19 Липучка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>308647</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R21 Липучка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>440973</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Колесо</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406411</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R14 Лето</x:t>
-  </x:si>
-  <x:si>
-    <x:t>444280</x:t>
-  </x:si>
-  <x:si>
-    <x:t>354738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>331576</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R17 Лето</x:t>
-  </x:si>
-  <x:si>
-    <x:t>434626</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R20 Лето</x:t>
-  </x:si>
-  <x:si>
-    <x:t>394413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R16 Зима</x:t>
-  </x:si>
-  <x:si>
-    <x:t>387609</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R18 Зима</x:t>
-  </x:si>
-  <x:si>
-    <x:t>283112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R17 Липучка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R19 Лето</x:t>
-  </x:si>
-  <x:si>
-    <x:t>453650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R22 Зима</x:t>
-  </x:si>
-  <x:si>
-    <x:t>406784</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R22 Лето</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R18 Лето</x:t>
-  </x:si>
-  <x:si>
-    <x:t>337577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R16 Лето</x:t>
-  </x:si>
-  <x:si>
-    <x:t>358851</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R19 Зима</x:t>
-  </x:si>
-  <x:si>
-    <x:t>274477</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R14 Кованый</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R15 Липучка</x:t>
-  </x:si>
-  <x:si>
-    <x:t>282569</x:t>
-  </x:si>
-  <x:si>
-    <x:t>388520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R22 Кованый</x:t>
-  </x:si>
-  <x:si>
-    <x:t>327883</x:t>
-  </x:si>
-  <x:si>
-    <x:t>328305</x:t>
-  </x:si>
-  <x:si>
-    <x:t>305509</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Запаска</x:t>
-  </x:si>
-  <x:si>
-    <x:t>447543</x:t>
-  </x:si>
-  <x:si>
-    <x:t>412238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Шина</x:t>
-  </x:si>
-  <x:si>
-    <x:t>418286</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Диск</x:t>
-  </x:si>
-  <x:si>
-    <x:t>R22 Липучка</x:t>
-  </x:si>
-  <x:si>
     <x:t>R18 Кованый</x:t>
   </x:si>
   <x:si>
     <x:t>Мин. стоимость для агента</x:t>
   </x:si>
   <x:si>
-    <x:t>Цех №</x:t>
-  </x:si>
-  <x:si>
     <x:t>Артикул</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Тип</x:t>
   </x:si>
   <x:si>
     <x:t>ID</x:t>
@@ -570,22 +555,22 @@
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
@@ -593,13 +578,13 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="E2" s="0">
         <x:v>10</x:v>
@@ -613,13 +598,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E3" s="0">
         <x:v>2</x:v>
@@ -633,13 +618,13 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E4" s="0">
         <x:v>4</x:v>
@@ -653,13 +638,13 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="E5" s="0">
         <x:v>7</x:v>
@@ -673,13 +658,13 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E6" s="0">
         <x:v>8</x:v>
@@ -693,13 +678,13 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E7" s="0">
         <x:v>3</x:v>
@@ -713,13 +698,13 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E8" s="0">
         <x:v>1</x:v>
@@ -733,13 +718,13 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E9" s="0">
         <x:v>2</x:v>
@@ -753,13 +738,13 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E10" s="0">
         <x:v>2</x:v>
@@ -773,13 +758,13 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E11" s="0">
         <x:v>5</x:v>
@@ -793,13 +778,13 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E12" s="0">
         <x:v>5</x:v>
@@ -813,13 +798,13 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="B13" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E13" s="0">
         <x:v>6</x:v>
@@ -833,13 +818,13 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E14" s="0">
         <x:v>9</x:v>
@@ -853,13 +838,13 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B15" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E15" s="0">
         <x:v>5</x:v>
@@ -873,13 +858,13 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="B16" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E16" s="0">
         <x:v>3</x:v>
@@ -893,13 +878,13 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="B17" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E17" s="0">
         <x:v>4</x:v>
@@ -913,13 +898,13 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="B18" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E18" s="0">
         <x:v>4</x:v>
@@ -933,13 +918,13 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B19" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E19" s="0">
         <x:v>10</x:v>
@@ -953,13 +938,13 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="B20" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E20" s="0">
         <x:v>8</x:v>
@@ -973,13 +958,13 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="B21" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E21" s="0">
         <x:v>6</x:v>
@@ -993,13 +978,13 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B22" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E22" s="0">
         <x:v>8</x:v>
@@ -1013,13 +998,13 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="B23" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E23" s="0">
         <x:v>10</x:v>
@@ -1033,13 +1018,13 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B24" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D24" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E24" s="0">
         <x:v>7</x:v>
@@ -1053,13 +1038,13 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="B25" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D25" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="E25" s="0">
         <x:v>4</x:v>
@@ -1073,13 +1058,13 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="B26" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E26" s="0">
         <x:v>4</x:v>
@@ -1093,13 +1078,13 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="B27" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="E27" s="0">
         <x:v>6</x:v>
@@ -1113,13 +1098,13 @@
         <x:v>125</x:v>
       </x:c>
       <x:c r="B28" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E28" s="0">
         <x:v>6</x:v>
@@ -1133,13 +1118,13 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="B29" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E29" s="0">
         <x:v>1</x:v>
@@ -1153,13 +1138,13 @@
         <x:v>131</x:v>
       </x:c>
       <x:c r="B30" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E30" s="0">
         <x:v>7</x:v>
@@ -1173,79 +1158,19 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="B31" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="E31" s="0">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F31" s="0">
         <x:v>5510</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:6">
-      <x:c r="A32" s="0">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="B32" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C32" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E32" s="0">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F32" s="0">
-        <x:v>1000</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:6">
-      <x:c r="A33" s="0">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="B33" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E33" s="0">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="F33" s="0">
-        <x:v>11110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:6">
-      <x:c r="A34" s="0">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="B34" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C34" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D34" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E34" s="0">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="F34" s="0">
-        <x:v>50000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
